--- a/ExcelReaderScript/EvaluationExcel.xlsx
+++ b/ExcelReaderScript/EvaluationExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>First result info</t>
   </si>
@@ -36,10 +36,13 @@
     <t>average</t>
   </si>
   <si>
+    <t>Second result info</t>
+  </si>
+  <si>
     <t>Navigation</t>
   </si>
   <si>
-    <t>Second result info</t>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -378,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,38 +396,41 @@
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
